--- a/交流管理/项目日报/饶培育日报.xlsx
+++ b/交流管理/项目日报/饶培育日报.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,18 @@
   </si>
   <si>
     <t>设计文档已完成，demo还只是钉钉通道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.研究sso白名单设计方案2.协助团队成员完成API网关调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API网关调试已调通，sso白名单已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -206,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -214,6 +226,7 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -516,13 +529,13 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.125" customWidth="1"/>
+    <col min="2" max="2" width="54.5" customWidth="1"/>
     <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="52.375" customWidth="1"/>
@@ -568,8 +581,25 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="E3" s="2"/>
+    <row r="3" spans="1:6" ht="22.5" customHeight="1">
+      <c r="A3" s="1">
+        <v>43031</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>441</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1"/>

--- a/交流管理/项目日报/饶培育日报.xlsx
+++ b/交流管理/项目日报/饶培育日报.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,6 +123,10 @@
   </si>
   <si>
     <t>API网关调试已调通，sso白名单已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.研究sso改造方案</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -529,7 +533,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -601,6 +605,23 @@
         <v>11</v>
       </c>
     </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>43032</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>441</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1"/>
       <c r="E5" s="2"/>

--- a/交流管理/项目日报/饶培育日报.xlsx
+++ b/交流管理/项目日报/饶培育日报.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,6 +127,10 @@
   </si>
   <si>
     <t>1.研究sso改造方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.编写sso白名单代码 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -623,8 +627,21 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="1"/>
-      <c r="E5" s="2"/>
+      <c r="A5" s="1">
+        <v>43033</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>445</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="E6" s="2"/>

--- a/交流管理/项目日报/饶培育日报.xlsx
+++ b/交流管理/项目日报/饶培育日报.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,10 @@
   </si>
   <si>
     <t xml:space="preserve">1.编写sso白名单代码 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.研究sso获取域名方法，建白名单表，以及完善代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -644,7 +648,21 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="E6" s="2"/>
+      <c r="A6" s="1">
+        <v>43034</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>445</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="E7" s="2"/>

--- a/交流管理/项目日报/饶培育日报.xlsx
+++ b/交流管理/项目日报/饶培育日报.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,6 +135,10 @@
   </si>
   <si>
     <t>1.研究sso获取域名方法，建白名单表，以及完善代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.修改白名单代码 2.画ar时序图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,7 +545,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -668,7 +672,18 @@
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="E8" s="2"/>
+      <c r="A8" s="1">
+        <v>43038</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>445</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1"/>

--- a/交流管理/项目日报/饶培育日报.xlsx
+++ b/交流管理/项目日报/饶培育日报.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +139,14 @@
   </si>
   <si>
     <t>1.修改白名单代码 2.画ar时序图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.学习研究docker技术 2.画ar时序图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,7 +553,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -686,7 +694,12 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
